--- a/file_checks/wrong_length_correct_genes_example.xlsx
+++ b/file_checks/wrong_length_correct_genes_example.xlsx
@@ -1337,499 +1337,499 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.931986141147082</v>
+        <v>-1.24280587388746</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110797913487058</v>
+        <v>-1.79491020964093</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.05437666919273</v>
+        <v>-2.37592847475756</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.651137467630048</v>
+        <v>-0.547640705973446</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.729506690132072</v>
+        <v>0.45375661310584</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.481101035933987</v>
+        <v>1.38122145786403</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0611716471031692</v>
+        <v>0.135868327342151</v>
       </c>
       <c r="H2" t="n">
-        <v>0.576254153814282</v>
+        <v>0.924227857920608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.525923583786297</v>
+        <v>0.838900894894491</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0820561069005145</v>
+        <v>0.350751713315127</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.07154153965593</v>
+        <v>0.431136532653344</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.00787827159188</v>
+        <v>-0.441504555888487</v>
       </c>
       <c r="M2" t="n">
-        <v>1.29014081398105</v>
+        <v>1.43310044245358</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.172701177263841</v>
+        <v>-0.346662716760224</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.331990090504474</v>
+        <v>-0.820507624683747</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.46846661174252</v>
+        <v>0.505444391247725</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.333658317472218</v>
+        <v>1.74418361976429</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.357646187779859</v>
+        <v>0.449381084972239</v>
       </c>
       <c r="S2" t="n">
-        <v>2.30491806195982</v>
+        <v>-1.68069164457506</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0362696222460766</v>
+        <v>0.479391550062272</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.605722044984001</v>
+        <v>0.100465733499528</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.02453015719871</v>
+        <v>-0.187226870038307</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.39199164471368</v>
+        <v>-1.14213055656803</v>
       </c>
       <c r="X2" t="n">
-        <v>0.794442249172061</v>
+        <v>0.472457007023819</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.01942472606065</v>
+        <v>0.420523436935439</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.257105426253584</v>
+        <v>0.264941715721247</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.51429956365982</v>
+        <v>-0.040358258455895</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.975265089175037</v>
+        <v>-1.52077584287902</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.324923260974468</v>
+        <v>-0.432100330131367</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.611206123877642</v>
+        <v>0.510359562427573</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.974964468481994</v>
+        <v>1.56106540776243</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.603631005037496</v>
+        <v>-0.895448546328476</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0793423820513832</v>
+        <v>-0.840840324585501</v>
       </c>
       <c r="AH2" t="n">
-        <v>-2.20823431552367</v>
+        <v>-1.1389785051531</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.964286549335835</v>
+        <v>-0.93845057988289</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.15017239394677</v>
+        <v>1.31321048644119</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.404189908607958</v>
+        <v>-0.691424449086836</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.62750938336395</v>
+        <v>-1.31708762380026</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.877829565967725</v>
+        <v>-1.09410672842081</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3039380746056</v>
+        <v>-0.11069408191237</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.8973725708531</v>
+        <v>0.222598525347519</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.724733123566135</v>
+        <v>-0.532061031462096</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.429243457332183</v>
+        <v>-0.696009753222337</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.25166925203692</v>
+        <v>-0.542011936932534</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.598520488510473</v>
+        <v>0.723153834413683</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.958597270895137</v>
+        <v>0.824266900295858</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.240156825653337</v>
+        <v>0.712211228441493</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.78421091891275</v>
+        <v>-0.00122933924425954</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.93727738737947</v>
+        <v>1.11883276121878</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.40490595064502</v>
+        <v>0.364068230097748</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0137000992238431</v>
+        <v>-0.822080397844103</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.395117216544067</v>
+        <v>1.61227231098926</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.04361954748405</v>
+        <v>0.309684819425259</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.869935028433379</v>
+        <v>0.110821629585389</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.397046817259603</v>
+        <v>2.60132554614088</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.898794601880985</v>
+        <v>0.465386410746962</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.299326104475787</v>
+        <v>-1.02846831195026</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.21048906875681</v>
+        <v>0.391922429630171</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.965197830011703</v>
+        <v>0.0387835250342461</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.280705011492724</v>
+        <v>0.224323401391506</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.2484428558359</v>
+        <v>0.613380472184053</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.31314110897387</v>
+        <v>-0.849476157809727</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.129344129022351</v>
+        <v>-1.73176167552851</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.286514758645677</v>
+        <v>-0.772367530896884</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.26960068365335</v>
+        <v>-0.560107405210229</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.425772301456868</v>
+        <v>-0.429984926755769</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.163896407574276</v>
+        <v>-1.05136323775214</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.378046391245509</v>
+        <v>2.02959852448333</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1.08593402011058</v>
+        <v>0.789557972810762</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.956431396934497</v>
+        <v>1.67934333246555</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.83261335898106</v>
+        <v>-0.433855252318177</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.462983067919886</v>
+        <v>-0.422244627425354</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.330214265800134</v>
+        <v>-0.0445439395109907</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.400100715230654</v>
+        <v>2.50864866947228</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.686546425768366</v>
+        <v>-1.68976834424132</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.650861903004143</v>
+        <v>-1.06093993592007</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.01537382393972</v>
+        <v>-0.144810977238783</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0239789069410359</v>
+        <v>0.199902633944033</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0772719913632763</v>
+        <v>0.632602728383441</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.203418258088572</v>
+        <v>-1.75080642130491</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.139612049092092</v>
+        <v>-1.108437862883</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.592963410986711</v>
+        <v>0.860615943412209</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.58109150618619</v>
+        <v>0.920330690828345</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0924624139639769</v>
+        <v>-0.0215434369124752</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.90479184897999</v>
+        <v>-1.31465044223236</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0293358198767561</v>
+        <v>-0.0912219902616795</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.433471148389565</v>
+        <v>0.574956449249207</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0941565759200918</v>
+        <v>0.972389555398135</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.572403860481283</v>
+        <v>1.54548512034869</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.075429533999811</v>
+        <v>-0.659578728303585</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.621098970706656</v>
+        <v>1.06466323156869</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.400583726627933</v>
+        <v>0.911068976249018</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.30920911016506</v>
+        <v>1.40251781799899</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.760694926858771</v>
+        <v>1.58296973127645</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.37815134381762</v>
+        <v>-1.03804112815068</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.527526459186801</v>
+        <v>-0.126916331005226</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0845995545545389</v>
+        <v>-0.420883009736619</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.204459903385256</v>
+        <v>-1.02615240538015</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.03558037590658</v>
+        <v>-0.224676263213607</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.140868648458283</v>
+        <v>-1.75393705546054</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.78091996136972</v>
+        <v>0.359686181877094</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0449115993003776</v>
+        <v>-0.395403546061185</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.266528814371676</v>
+        <v>1.55702599063044</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.615984878595273</v>
+        <v>-0.867382299946593</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.271157332081186</v>
+        <v>-0.256882542245728</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.550010527938429</v>
+        <v>0.755857740839126</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.517795986751513</v>
+        <v>-0.235376954439284</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.55913699633612</v>
+        <v>0.0562891161142415</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.300009064806289</v>
+        <v>0.055920435803418</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.562964439867706</v>
+        <v>-0.242498332640732</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.967613163295354</v>
+        <v>1.51592789370894</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.449229990949078</v>
+        <v>-0.899913373930321</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.167715726179915</v>
+        <v>0.406281414170371</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.457818783894096</v>
+        <v>-0.575933819032269</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.03657105389251</v>
+        <v>-0.216907028618485</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.670573930061233</v>
+        <v>-0.569730920372544</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.204390720565795</v>
+        <v>-0.0377579934434502</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.988702612370457</v>
+        <v>-2.35867557555253</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.996156551678824</v>
+        <v>0.278669919440662</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0782898007068759</v>
+        <v>1.54165204424778</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.284170641172758</v>
+        <v>1.52356670017761</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.23324241478865</v>
+        <v>-1.00658163086003</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.517475344782936</v>
+        <v>0.0258440095001909</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.19116122454779</v>
+        <v>0.396612532942545</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.50536985338726</v>
+        <v>-0.635776881747751</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.128226109714304</v>
+        <v>-0.497948136295949</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.5750797119984</v>
+        <v>-0.190908452536012</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.03244515010387</v>
+        <v>-0.0780839547007778</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.15235994652168</v>
+        <v>-0.343560399129073</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.494372950308597</v>
+        <v>0.893569685875605</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.124372902081951</v>
+        <v>2.10737606671275</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.310469704385549</v>
+        <v>0.296164083092801</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.587555495770435</v>
+        <v>-0.111230377664412</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.944399000774364</v>
+        <v>0.440963610423505</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.888816326528059</v>
+        <v>1.43721326614282</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.129135775873323</v>
+        <v>-0.920474203215254</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.880575593256163</v>
+        <v>-2.18413256784072</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.542258300671211</v>
+        <v>-0.262757190625985</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.351044064827634</v>
+        <v>-0.998317952020407</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.807643680432277</v>
+        <v>-1.61108493165353</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.897736034454662</v>
+        <v>0.281341916549553</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.408312503339375</v>
+        <v>0.792148809330299</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.383259350945896</v>
+        <v>0.44819136199288</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.136098577872925</v>
+        <v>-0.0847542532828197</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0495813777261565</v>
+        <v>0.178096413300415</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.815018138129776</v>
+        <v>0.0206098802851079</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.206599911033648</v>
+        <v>-0.809178954060851</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.505607790016505</v>
+        <v>1.19714356167072</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.20174744926752</v>
+        <v>0.0352297958355353</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.6456745040237</v>
+        <v>-1.218445595926</v>
       </c>
       <c r="EU2" t="n">
-        <v>-1.11920474891579</v>
+        <v>1.18023063131712</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.400115738363385</v>
+        <v>-0.378337331151332</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.799946732689806</v>
+        <v>-0.477150635809714</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.348001741876245</v>
+        <v>1.05843523643662</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.141835312671504</v>
+        <v>-0.90408181371532</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.03354366045948</v>
+        <v>0.967185875606978</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.156893292941126</v>
+        <v>0.714531403110954</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.686927841094618</v>
+        <v>0.897902951420909</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.419214726386348</v>
+        <v>-2.26533696064212</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.353693497107647</v>
+        <v>-0.848808122716123</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.29208591337925</v>
+        <v>0.395822070623676</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.303005096444922</v>
+        <v>0.155500444076056</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.02956885201537</v>
+        <v>0.0332381932069235</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.146986047471174</v>
+        <v>-0.582648716068736</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.186662494626949</v>
+        <v>-1.39832702580677</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/wrong_length_correct_genes_example.xlsx
+++ b/file_checks/wrong_length_correct_genes_example.xlsx
@@ -1337,499 +1337,499 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.24280587388746</v>
+        <v>0.305693917887212</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.79491020964093</v>
+        <v>0.228666385028571</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.37592847475756</v>
+        <v>-0.786096138751815</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.547640705973446</v>
+        <v>0.30415689811615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45375661310584</v>
+        <v>-1.01793350694379</v>
       </c>
       <c r="F2" t="n">
-        <v>1.38122145786403</v>
+        <v>-1.57405337842081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.135868327342151</v>
+        <v>-1.209636485755</v>
       </c>
       <c r="H2" t="n">
-        <v>0.924227857920608</v>
+        <v>-0.243669991313747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.838900894894491</v>
+        <v>-0.952671226669145</v>
       </c>
       <c r="J2" t="n">
-        <v>0.350751713315127</v>
+        <v>0.986088715918723</v>
       </c>
       <c r="K2" t="n">
-        <v>0.431136532653344</v>
+        <v>-0.290541312135855</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.441504555888487</v>
+        <v>0.360747831313481</v>
       </c>
       <c r="M2" t="n">
-        <v>1.43310044245358</v>
+        <v>1.13585640571854</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.346662716760224</v>
+        <v>-0.266656533999573</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.820507624683747</v>
+        <v>0.202696284236362</v>
       </c>
       <c r="P2" t="n">
-        <v>0.505444391247725</v>
+        <v>0.945800694888523</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74418361976429</v>
+        <v>1.00259499524495</v>
       </c>
       <c r="R2" t="n">
-        <v>0.449381084972239</v>
+        <v>-0.93225369557489</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.68069164457506</v>
+        <v>0.953997018416284</v>
       </c>
       <c r="T2" t="n">
-        <v>0.479391550062272</v>
+        <v>-0.369399025897982</v>
       </c>
       <c r="U2" t="n">
-        <v>0.100465733499528</v>
+        <v>0.549131453934415</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.187226870038307</v>
+        <v>1.09627412396399</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.14213055656803</v>
+        <v>0.215929087309233</v>
       </c>
       <c r="X2" t="n">
-        <v>0.472457007023819</v>
+        <v>-0.696687267597028</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.420523436935439</v>
+        <v>0.433901793304583</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.264941715721247</v>
+        <v>1.21174411817207</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.040358258455895</v>
+        <v>1.21190333880992</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.52077584287902</v>
+        <v>-0.0362159023076954</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.432100330131367</v>
+        <v>-2.49231382967031</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.510359562427573</v>
+        <v>1.43061162643438</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.56106540776243</v>
+        <v>-0.838877896914577</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.895448546328476</v>
+        <v>-0.281692435559147</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.840840324585501</v>
+        <v>1.5794783567009</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.1389785051531</v>
+        <v>1.38638673124497</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.93845057988289</v>
+        <v>0.0509220871374493</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.31321048644119</v>
+        <v>1.64758296019141</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.691424449086836</v>
+        <v>0.0408458805338524</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.31708762380026</v>
+        <v>0.852782157885162</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.09410672842081</v>
+        <v>0.254621961775332</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.11069408191237</v>
+        <v>0.0131498299642906</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.222598525347519</v>
+        <v>1.16102204258116</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.532061031462096</v>
+        <v>-0.525789283936972</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.696009753222337</v>
+        <v>-0.109977739825751</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.542011936932534</v>
+        <v>-0.852058997551182</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.723153834413683</v>
+        <v>1.02260657333325</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.824266900295858</v>
+        <v>-0.125230394046814</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.712211228441493</v>
+        <v>0.859929617260588</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.00122933924425954</v>
+        <v>0.500420710314326</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.11883276121878</v>
+        <v>0.139397582950002</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.364068230097748</v>
+        <v>0.04634964174585</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.822080397844103</v>
+        <v>-0.54629062785004</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.61227231098926</v>
+        <v>1.84435759727986</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.309684819425259</v>
+        <v>-1.59328315208862</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.110821629585389</v>
+        <v>1.32007687072812</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.60132554614088</v>
+        <v>-0.0723462226861661</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.465386410746962</v>
+        <v>-0.166095410874775</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.02846831195026</v>
+        <v>1.07345588288876</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.391922429630171</v>
+        <v>0.241039128940482</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0387835250342461</v>
+        <v>1.87967985490668</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.224323401391506</v>
+        <v>-2.04611418552227</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.613380472184053</v>
+        <v>1.31558735686559</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.849476157809727</v>
+        <v>-1.80935909875513</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.73176167552851</v>
+        <v>0.639941940716259</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.772367530896884</v>
+        <v>-1.67800077070505</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.560107405210229</v>
+        <v>0.327459249521346</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.429984926755769</v>
+        <v>-0.416693805874022</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.05136323775214</v>
+        <v>2.69993906768779</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.02959852448333</v>
+        <v>0.134970199342439</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.789557972810762</v>
+        <v>0.427280731728109</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.67934333246555</v>
+        <v>1.2100068175822</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.433855252318177</v>
+        <v>0.493280735044782</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.422244627425354</v>
+        <v>-1.22211678712843</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.0445439395109907</v>
+        <v>-0.81721458920588</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.50864866947228</v>
+        <v>-0.126196939740527</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.68976834424132</v>
+        <v>-0.281015656164719</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.06093993592007</v>
+        <v>-0.331137447924864</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.144810977238783</v>
+        <v>-0.82337933839385</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.199902633944033</v>
+        <v>0.360959926742824</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.632602728383441</v>
+        <v>0.148834395402104</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.75080642130491</v>
+        <v>0.278051256780456</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.108437862883</v>
+        <v>1.55448946768128</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.860615943412209</v>
+        <v>-1.75029647858336</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.920330690828345</v>
+        <v>0.100997808298339</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0215434369124752</v>
+        <v>1.01401814165001</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.31465044223236</v>
+        <v>1.8843471521502</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0912219902616795</v>
+        <v>-0.546684577821975</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.574956449249207</v>
+        <v>0.79003761015752</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.972389555398135</v>
+        <v>-1.06192853816339</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.54548512034869</v>
+        <v>-2.25649596790718</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.659578728303585</v>
+        <v>2.64801985375038</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.06466323156869</v>
+        <v>-0.992453388068566</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.911068976249018</v>
+        <v>0.441673881692319</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.40251781799899</v>
+        <v>0.319981327997971</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.58296973127645</v>
+        <v>0.899203920316106</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.03804112815068</v>
+        <v>1.11017372793961</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.126916331005226</v>
+        <v>-0.117374422783969</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.420883009736619</v>
+        <v>-1.33198917181691</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.02615240538015</v>
+        <v>0.545588258616447</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.224676263213607</v>
+        <v>0.471454039739381</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1.75393705546054</v>
+        <v>-1.05033498853002</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.359686181877094</v>
+        <v>-1.01371266971979</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.395403546061185</v>
+        <v>0.594342486137007</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.55702599063044</v>
+        <v>1.14043705713144</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.867382299946593</v>
+        <v>-0.958360193591639</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.256882542245728</v>
+        <v>1.03197494727452</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.755857740839126</v>
+        <v>-1.47849348631433</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.235376954439284</v>
+        <v>0.876610819427425</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0562891161142415</v>
+        <v>0.895833120599843</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.055920435803418</v>
+        <v>0.944492952444688</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.242498332640732</v>
+        <v>1.79569567407877</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.51592789370894</v>
+        <v>2.49148587117483</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.899913373930321</v>
+        <v>0.30604494485031</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.406281414170371</v>
+        <v>-0.685075729372278</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.575933819032269</v>
+        <v>-0.492724009925465</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.216907028618485</v>
+        <v>1.15267187833735</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.569730920372544</v>
+        <v>0.789500541847145</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.0377579934434502</v>
+        <v>-0.813767069923485</v>
       </c>
       <c r="DN2" t="n">
-        <v>-2.35867557555253</v>
+        <v>0.264808999438776</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.278669919440662</v>
+        <v>-0.761870761026895</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.54165204424778</v>
+        <v>0.104408902180206</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.52356670017761</v>
+        <v>0.394160924562325</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.00658163086003</v>
+        <v>0.807448532978301</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0258440095001909</v>
+        <v>-2.3911750101439</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.396612532942545</v>
+        <v>1.41162090068196</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.635776881747751</v>
+        <v>-0.634958681733177</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.497948136295949</v>
+        <v>0.443026970343281</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.190908452536012</v>
+        <v>1.78303286048773</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.0780839547007778</v>
+        <v>-1.10140600025828</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.343560399129073</v>
+        <v>-0.552608253979955</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.893569685875605</v>
+        <v>-0.504570679855623</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.10737606671275</v>
+        <v>-0.0878711938769729</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.296164083092801</v>
+        <v>0.109533873782559</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.111230377664412</v>
+        <v>-0.701560159887196</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.440963610423505</v>
+        <v>-1.50192102043145</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.43721326614282</v>
+        <v>0.0780037956366155</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.920474203215254</v>
+        <v>0.965399519504199</v>
       </c>
       <c r="EG2" t="n">
-        <v>-2.18413256784072</v>
+        <v>0.482205936328997</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.262757190625985</v>
+        <v>0.493620104940607</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.998317952020407</v>
+        <v>-0.149362350635423</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-1.61108493165353</v>
+        <v>-0.699228630425942</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.281341916549553</v>
+        <v>-1.98956879500861</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.792148809330299</v>
+        <v>1.06221752363156</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.44819136199288</v>
+        <v>-0.0472321152041921</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0847542532828197</v>
+        <v>0.568414115587297</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.178096413300415</v>
+        <v>0.296651205628179</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0206098802851079</v>
+        <v>0.337629430071004</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.809178954060851</v>
+        <v>0.127088417234036</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.19714356167072</v>
+        <v>-0.597815897276996</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0352297958355353</v>
+        <v>-0.0519584419700401</v>
       </c>
       <c r="ET2" t="n">
-        <v>-1.218445595926</v>
+        <v>1.17369237420719</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.18023063131712</v>
+        <v>-0.179974459869043</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.378337331151332</v>
+        <v>-0.402481879269877</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.477150635809714</v>
+        <v>-1.54852536709219</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.05843523643662</v>
+        <v>-1.12802346337282</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.90408181371532</v>
+        <v>0.697048747275819</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.967185875606978</v>
+        <v>0.785508700754652</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.714531403110954</v>
+        <v>-0.806554808726814</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.897902951420909</v>
+        <v>0.743016666465168</v>
       </c>
       <c r="FC2" t="n">
-        <v>-2.26533696064212</v>
+        <v>-1.16968295578856</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.848808122716123</v>
+        <v>-0.171885543604254</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.395822070623676</v>
+        <v>-0.194869791990511</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.155500444076056</v>
+        <v>2.59189354882443</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0332381932069235</v>
+        <v>-0.629378570488242</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.582648716068736</v>
+        <v>0.0679448746829978</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.39832702580677</v>
+        <v>-0.108902449653702</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/wrong_length_correct_genes_example.xlsx
+++ b/file_checks/wrong_length_correct_genes_example.xlsx
@@ -1337,499 +1337,499 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.305693917887212</v>
+        <v>0.15471649981438</v>
       </c>
       <c r="B2" t="n">
-        <v>0.228666385028571</v>
+        <v>-0.405269053457116</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.786096138751815</v>
+        <v>-0.367556232950591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.30415689811615</v>
+        <v>0.868406323034721</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.01793350694379</v>
+        <v>0.367335526504858</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.57405337842081</v>
+        <v>0.581740702142395</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.209636485755</v>
+        <v>1.24893281659299</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.243669991313747</v>
+        <v>0.509463533189867</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.952671226669145</v>
+        <v>-0.0372876388822499</v>
       </c>
       <c r="J2" t="n">
-        <v>0.986088715918723</v>
+        <v>-1.25542599643585</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.290541312135855</v>
+        <v>1.38986908295178</v>
       </c>
       <c r="L2" t="n">
-        <v>0.360747831313481</v>
+        <v>1.83388826365823</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13585640571854</v>
+        <v>-0.443380003415605</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.266656533999573</v>
+        <v>-0.349230014543447</v>
       </c>
       <c r="O2" t="n">
-        <v>0.202696284236362</v>
+        <v>-0.154880024437097</v>
       </c>
       <c r="P2" t="n">
-        <v>0.945800694888523</v>
+        <v>-1.34315457814156</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.00259499524495</v>
+        <v>-0.281724454773523</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.93225369557489</v>
+        <v>-0.719978064842346</v>
       </c>
       <c r="S2" t="n">
-        <v>0.953997018416284</v>
+        <v>-1.17864133590218</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.369399025897982</v>
+        <v>-0.0356594051936763</v>
       </c>
       <c r="U2" t="n">
-        <v>0.549131453934415</v>
+        <v>-0.319290611373272</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09627412396399</v>
+        <v>-0.567408710269565</v>
       </c>
       <c r="W2" t="n">
-        <v>0.215929087309233</v>
+        <v>0.887193154952202</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.696687267597028</v>
+        <v>-0.713914539525908</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.433901793304583</v>
+        <v>-0.464635159199527</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.21174411817207</v>
+        <v>2.5517218404839</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.21190333880992</v>
+        <v>-1.35566672311499</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.0362159023076954</v>
+        <v>-0.980677461236037</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.49231382967031</v>
+        <v>0.510879863721857</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.43061162643438</v>
+        <v>1.65683274086941</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.838877896914577</v>
+        <v>0.339592942596497</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.281692435559147</v>
+        <v>0.593236670833929</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.5794783567009</v>
+        <v>-0.0625696961650114</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.38638673124497</v>
+        <v>-1.83703095709183</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0509220871374493</v>
+        <v>0.251084512076948</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.64758296019141</v>
+        <v>0.486350917052714</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0408458805338524</v>
+        <v>2.01242622572279</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.852782157885162</v>
+        <v>-0.297985237909705</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.254621961775332</v>
+        <v>-1.31996661648999</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0131498299642906</v>
+        <v>-1.34800487337421</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.16102204258116</v>
+        <v>0.32095019270177</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.525789283936972</v>
+        <v>0.613152207563987</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.109977739825751</v>
+        <v>-0.35488168875909</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.852058997551182</v>
+        <v>1.40700424472062</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.02260657333325</v>
+        <v>-0.186679834939792</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.125230394046814</v>
+        <v>-0.0757176226852757</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.859929617260588</v>
+        <v>-0.239371745634797</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.500420710314326</v>
+        <v>1.23080156786736</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.139397582950002</v>
+        <v>-0.74643996679282</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.04634964174585</v>
+        <v>0.926330586781449</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.54629062785004</v>
+        <v>-1.17103607238411</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.84435759727986</v>
+        <v>0.418985401759412</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.59328315208862</v>
+        <v>0.299210651624504</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.32007687072812</v>
+        <v>0.324440678403591</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0723462226861661</v>
+        <v>1.49379277998218</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.166095410874775</v>
+        <v>1.29053562876052</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.07345588288876</v>
+        <v>-0.595376384636048</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.241039128940482</v>
+        <v>-0.78909615171927</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.87967985490668</v>
+        <v>-0.261688874803086</v>
       </c>
       <c r="BH2" t="n">
-        <v>-2.04611418552227</v>
+        <v>-0.207287800632124</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.31558735686559</v>
+        <v>0.559015067788492</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.80935909875513</v>
+        <v>-0.76937610719305</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.639941940716259</v>
+        <v>-0.552061563939659</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.67800077070505</v>
+        <v>-0.896807695205384</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.327459249521346</v>
+        <v>-1.06810121838603</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.416693805874022</v>
+        <v>-1.24860057350346</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.69993906768779</v>
+        <v>0.82529248311484</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.134970199342439</v>
+        <v>-0.238348378431503</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.427280731728109</v>
+        <v>0.0396522218515062</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.2100068175822</v>
+        <v>0.450792906160518</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.493280735044782</v>
+        <v>-0.544195355171057</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.22211678712843</v>
+        <v>-0.162702827054422</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.81721458920588</v>
+        <v>-0.138944866074585</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.126196939740527</v>
+        <v>2.55371844458198</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.281015656164719</v>
+        <v>-0.303959204654917</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.331137447924864</v>
+        <v>0.00379896550112815</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.82337933839385</v>
+        <v>-0.919345852168037</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.360959926742824</v>
+        <v>0.28849933776884</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.148834395402104</v>
+        <v>-1.38463885217176</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.278051256780456</v>
+        <v>0.52582053276639</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.55448946768128</v>
+        <v>-0.132153695207542</v>
       </c>
       <c r="CD2" t="n">
-        <v>-1.75029647858336</v>
+        <v>0.334614306783929</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.100997808298339</v>
+        <v>1.40978739207771</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.01401814165001</v>
+        <v>-0.501094929264767</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.8843471521502</v>
+        <v>0.378445296558857</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.546684577821975</v>
+        <v>-0.430904556915045</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.79003761015752</v>
+        <v>-0.377065375705013</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.06192853816339</v>
+        <v>-2.34856185917106</v>
       </c>
       <c r="CK2" t="n">
-        <v>-2.25649596790718</v>
+        <v>-0.397710349278032</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.64801985375038</v>
+        <v>1.44332725010867</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.992453388068566</v>
+        <v>-1.21342774683598</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.441673881692319</v>
+        <v>1.08694400283245</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.319981327997971</v>
+        <v>-0.388866026064948</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.899203920316106</v>
+        <v>0.920172995298858</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.11017372793961</v>
+        <v>-0.583809493394891</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.117374422783969</v>
+        <v>1.77950435850119</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.33198917181691</v>
+        <v>1.02233758155054</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.545588258616447</v>
+        <v>0.657467197149189</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.471454039739381</v>
+        <v>-0.57054661743533</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1.05033498853002</v>
+        <v>0.705988272981242</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.01371266971979</v>
+        <v>1.05144279178667</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.594342486137007</v>
+        <v>-1.56965464699054</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.14043705713144</v>
+        <v>0.696058948603872</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.958360193591639</v>
+        <v>-0.617281768747878</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.03197494727452</v>
+        <v>-1.19408181652112</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.47849348631433</v>
+        <v>-2.11204342776024</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.876610819427425</v>
+        <v>-0.737921034515272</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.895833120599843</v>
+        <v>2.06162286439451</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.944492952444688</v>
+        <v>0.437654157687674</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.79569567407877</v>
+        <v>0.662712695768252</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.49148587117483</v>
+        <v>-1.37742307816445</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.30604494485031</v>
+        <v>0.744379970404978</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.685075729372278</v>
+        <v>0.841850393103968</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.492724009925465</v>
+        <v>-1.18338469627448</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.15267187833735</v>
+        <v>0.365223996086895</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.789500541847145</v>
+        <v>-0.104548733199405</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.813767069923485</v>
+        <v>-0.991984939218309</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.264808999438776</v>
+        <v>-0.707528364320933</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.761870761026895</v>
+        <v>-0.592899762950515</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.104408902180206</v>
+        <v>1.0027570520214</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.394160924562325</v>
+        <v>0.894525407332547</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.807448532978301</v>
+        <v>-0.692116531754693</v>
       </c>
       <c r="DS2" t="n">
-        <v>-2.3911750101439</v>
+        <v>1.1075860443948</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.41162090068196</v>
+        <v>-2.52602178646914</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.634958681733177</v>
+        <v>0.421840407249178</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.443026970343281</v>
+        <v>1.46119015427807</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.78303286048773</v>
+        <v>-2.58872714448249</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.10140600025828</v>
+        <v>-0.680802692180907</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.552608253979955</v>
+        <v>-0.322664821525328</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.504570679855623</v>
+        <v>-2.30624509166662</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0878711938769729</v>
+        <v>-1.35841028619792</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.109533873782559</v>
+        <v>1.71851637654774</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.701560159887196</v>
+        <v>-0.436567069584427</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.50192102043145</v>
+        <v>-0.0560214531423729</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0780037956366155</v>
+        <v>-0.704391639017325</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.965399519504199</v>
+        <v>2.4053378641352</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.482205936328997</v>
+        <v>-1.8273113762959</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.493620104940607</v>
+        <v>-0.0819132546911941</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.149362350635423</v>
+        <v>0.466617259702868</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.699228630425942</v>
+        <v>1.21412017095166</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.98956879500861</v>
+        <v>-0.0382439989317552</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.06221752363156</v>
+        <v>2.17180152933648</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0472321152041921</v>
+        <v>-1.43654165367516</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.568414115587297</v>
+        <v>-0.593515912829344</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.296651205628179</v>
+        <v>-0.867218338347586</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.337629430071004</v>
+        <v>1.51659623223098</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.127088417234036</v>
+        <v>0.543326670145169</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.597815897276996</v>
+        <v>0.475708690077577</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0519584419700401</v>
+        <v>-0.983846096080775</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.17369237420719</v>
+        <v>-3.08265637022957</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.179974459869043</v>
+        <v>0.24250914865116</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.402481879269877</v>
+        <v>2.10659278923809</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.54852536709219</v>
+        <v>-0.314449266399926</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.12802346337282</v>
+        <v>0.570086286303625</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.697048747275819</v>
+        <v>-0.0723683083061359</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.785508700754652</v>
+        <v>0.0150554809433874</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.806554808726814</v>
+        <v>1.47314613842409</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.743016666465168</v>
+        <v>-0.679575232118643</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.16968295578856</v>
+        <v>1.90337867851472</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.171885543604254</v>
+        <v>-0.573362502328141</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.194869791990511</v>
+        <v>-1.56208635194075</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.59189354882443</v>
+        <v>0.872982510512546</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.629378570488242</v>
+        <v>0.652460666670318</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0679448746829978</v>
+        <v>-0.353165163175858</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.108902449653702</v>
+        <v>-1.36498875017347</v>
       </c>
     </row>
   </sheetData>
